--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_84_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_84_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.552568156079891, 6.035233673167324]</t>
+          <t>[5.549007302666318, 6.038794526580897]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.0620272238008468, 0.20536923323179934]</t>
+          <t>[-0.06199524648124388, 0.20533725591219643]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.286032738733399</v>
+        <v>0.2859189443320296</v>
       </c>
       <c r="V2" t="n">
-        <v>0.286032738733399</v>
+        <v>0.2859189443320296</v>
       </c>
       <c r="W2" t="n">
         <v>1.478938938938981</v>
